--- a/frontend/sellout/public/TEMPLATE DE TIPO DE MUEBLE.xlsx
+++ b/frontend/sellout/public/TEMPLATE DE TIPO DE MUEBLE.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://manufacturasame-my.sharepoint.com/personal/fjama_manamer_com/Documents/Documentos/TEMPLATE SELL OUT FYBECA/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fernanda Jama\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="25" documentId="8_{25A6E169-104E-4D33-A31A-58679603908A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7C8BCEBA-FFCA-4179-BE76-0A316D968D24}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{261670C5-2B49-4D7B-AAFD-F5D75751A129}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30300" yWindow="1260" windowWidth="17280" windowHeight="8880" xr2:uid="{9179F145-B632-43E4-AF5F-5C9777AB6638}"/>
+    <workbookView xWindow="3312" yWindow="3312" windowWidth="17280" windowHeight="8880" xr2:uid="{9179F145-B632-43E4-AF5F-5C9777AB6638}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Codigo PDV</t>
   </si>
@@ -33,14 +33,17 @@
     <t>Nombre PDV</t>
   </si>
   <si>
-    <t>Tipo Mueble</t>
+    <t>Tipo de Display Essence</t>
+  </si>
+  <si>
+    <t>Tipo de Display Catrice</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -50,6 +53,14 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -75,8 +86,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -391,10 +403,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F42A44E-B60A-4B2F-A833-B9F30728067B}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -402,15 +414,18 @@
     <col min="2" max="2" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/frontend/sellout/public/TEMPLATE DE TIPO DE MUEBLE.xlsx
+++ b/frontend/sellout/public/TEMPLATE DE TIPO DE MUEBLE.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fernanda Jama\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fer\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{261670C5-2B49-4D7B-AAFD-F5D75751A129}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2970DBD2-E4BE-4E44-AAB4-5125898AAD4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3312" yWindow="3312" windowWidth="17280" windowHeight="8880" xr2:uid="{9179F145-B632-43E4-AF5F-5C9777AB6638}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{9179F145-B632-43E4-AF5F-5C9777AB6638}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Codigo PDV</t>
   </si>
@@ -37,6 +37,9 @@
   </si>
   <si>
     <t>Tipo de Display Catrice</t>
+  </si>
+  <si>
+    <t>Ciudad</t>
   </si>
 </sst>
 </file>
@@ -86,9 +89,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -107,9 +115,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -147,7 +155,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -253,7 +261,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -395,7 +403,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -403,18 +411,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F42A44E-B60A-4B2F-A833-B9F30728067B}">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D1"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="13.33203125" customWidth="1"/>
+    <col min="1" max="2" width="14.453125" style="2" customWidth="1"/>
+    <col min="3" max="4" width="28.26953125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="14.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -427,6 +437,9 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
